--- a/Employee_Reports29/Rogelio Reyes Gomez Jr. Q0301.xlsx
+++ b/Employee_Reports29/Rogelio Reyes Gomez Jr. Q0301.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -462,7 +466,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="56" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -571,11 +575,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +624,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +673,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +722,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -767,11 +771,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -816,11 +820,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +869,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -914,11 +918,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -963,11 +967,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1012,11 +1016,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1061,11 +1065,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1110,11 +1114,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1159,11 +1163,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1208,11 +1212,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1257,11 +1261,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1306,11 +1310,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1355,11 +1359,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1404,11 +1408,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1453,11 +1457,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1502,11 +1506,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1551,11 +1555,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1600,11 +1604,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1649,11 +1653,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1698,11 +1702,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1726,8 +1730,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
-        <v/>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
@@ -1745,11 +1751,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1773,8 +1779,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
-        <v/>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
@@ -1792,11 +1800,11 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>-190</v>
+        <v>-191</v>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -1820,8 +1828,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
-        <v/>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
@@ -1839,11 +1849,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1867,8 +1877,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D30" s="3" t="n">
-        <v/>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
@@ -1886,11 +1898,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1923,11 +1935,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1946,9 +1958,21 @@
           <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>DFWH</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LSME-QDF-SOP-003</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
           <t>07-May-2025</t>
@@ -1960,11 +1984,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
